--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R29498d86faff4617"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R486913df29e2457e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R6866283fd54b4270" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rb3b72c2d02df4017"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R61d8fca3c88740bd" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R72df4ba78d584f47"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R737627cac3a54177"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R2a45ae9b78b6487b" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R91a9b0db41f94507"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R300da6112ba14679" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R3475afe6a1a048e5"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rd7055da62c1a49bd"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R486913df29e2457e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rb468e885e98a4086"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R2a45ae9b78b6487b" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R91a9b0db41f94507"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R300da6112ba14679" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R3475afe6a1a048e5"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rd7055da62c1a49bd"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R9d571ff995284ea2" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Re0131521990741d2"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Reeedbe59f2c14d75" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R58bea31c5e994876"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rbf90fb2e1d6b47b5"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rb468e885e98a4086"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rcf10c56fadb746d7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R9d571ff995284ea2" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Re0131521990741d2"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Reeedbe59f2c14d75" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R58bea31c5e994876"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rbf90fb2e1d6b47b5"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R7c593535089c497e" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Ra368360ade8c469a"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rf33886c466cb4d9d" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R309845af100c47af"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rda7c0916512d43db"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rcf10c56fadb746d7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R3964e2cb3405413a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R7c593535089c497e" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Ra368360ade8c469a"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rf33886c466cb4d9d" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R309845af100c47af"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rda7c0916512d43db"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rde61668354e94f15" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R58a1cd1b64b9424e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R5f5f0dfb8b5f4e2d" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R90f95543d1964541"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R844fa972028a4012"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R3964e2cb3405413a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R02d1524667d446d4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rde61668354e94f15" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R58a1cd1b64b9424e"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R5f5f0dfb8b5f4e2d" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R90f95543d1964541"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R844fa972028a4012"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rd53cc2bc668f4fa8" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rea568e092cba43f3"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rb2e282a63eb34e68" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rde8bffa6faa944b0"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Reed7f585d34b4c4e"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R02d1524667d446d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rf3bf836d079348e2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rd53cc2bc668f4fa8" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Rea568e092cba43f3"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rb2e282a63eb34e68" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Rde8bffa6faa944b0"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Reed7f585d34b4c4e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R680c4d2c2f784955" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R6b9e1d825036428e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R3e3cc6ae6c9d49ba" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Ree9006be72d542bc"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R2627f43e0eef4b99"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rf3bf836d079348e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rf4b30d7515a94b33"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R680c4d2c2f784955" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R6b9e1d825036428e"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R3e3cc6ae6c9d49ba" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Ree9006be72d542bc"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R2627f43e0eef4b99"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rca2ce31310464c9e" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R24abc5e79abe43b5"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R86362d1806464fe9" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R929019bf5ff54f49"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R271c02793dde496a"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rf4b30d7515a94b33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R4f2ef928fff64c34"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rca2ce31310464c9e" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R24abc5e79abe43b5"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R86362d1806464fe9" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R929019bf5ff54f49"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R271c02793dde496a"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R83febef872b34bc2" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Re3fe0aaa4ddd46f7"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R0c3383cf3c0348a9" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R5fec511c75ad4b00"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R24d94e4c7e8a478b"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R4f2ef928fff64c34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R816c3c509a694f33"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R83febef872b34bc2" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Re3fe0aaa4ddd46f7"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R0c3383cf3c0348a9" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R5fec511c75ad4b00"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R24d94e4c7e8a478b"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R88c86c8d468949e5" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Ra08ff6e103fc4d68"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R47af545f70884fbb" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R5c09f010a3de4524"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R241ddf2ff6a948a8"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R816c3c509a694f33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R62d5e21e87ff4019"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R88c86c8d468949e5" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Ra08ff6e103fc4d68"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R47af545f70884fbb" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R5c09f010a3de4524"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R241ddf2ff6a948a8"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rc6b7466729b54f88" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R732fef8edcb84922"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R4bcc76d0dc8b408b" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R3a6c562671bf4230"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R4cc57266341140e4"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R62d5e21e87ff4019"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R8eb4aab97d8a4bca"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,30 +29,30 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF0000FF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF0000FF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:i/>
       <x:sz val="12"/>
       <x:color rgb="FF0000FF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="Rc6b7466729b54f88" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R732fef8edcb84922"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R4bcc76d0dc8b408b" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R3a6c562671bf4230"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="R4cc57266341140e4"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R89fe17f888fc4e47" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Red7c4dd0f56749c8"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rec6a9d2996cc40e1" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Ra40153ca36af4339"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Ra77a5bf0094e4b2e"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="R8eb4aab97d8a4bca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rac5c589468924020"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,30 +29,30 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF0000FF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF0000FF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:i/>
       <x:sz val="12"/>
       <x:color rgb="FF0000FF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R89fe17f888fc4e47" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="Red7c4dd0f56749c8"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Rec6a9d2996cc40e1" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="Ra40153ca36af4339"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Ra77a5bf0094e4b2e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R31f638547d164646" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R8221a64463cb423e"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Raeb4d7079beb42d3" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R0677a4f1ed0d469a"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rb591c36fa86c44c9"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/034_Hyperlinks.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rac5c589468924020"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hyperlinks" sheetId="1" r:id="Rac19e00d1d244fa3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -168,11 +168,11 @@
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R31f638547d164646" tooltip="Click to visit our website"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R8221a64463cb423e"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="Raeb4d7079beb42d3" tooltip="Send us an email"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R0677a4f1ed0d469a"/>
-    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rb591c36fa86c44c9"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="R03fb428b93a04ab4" tooltip="Click to visit our website"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="R4a9948d2c5a14c65"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="R3b7269f0f5274e28" tooltip="Send us an email"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="R96f5bf0935b74083"/>
+    <x:hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="Rc8d43816e3354968"/>
   </x:hyperlinks>
 </x:worksheet>
 </file>